--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1618819.722312373</v>
+        <v>-1621301.215896311</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10723593.16909386</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14679055.50894793</v>
+        <v>14679568.84671734</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.5778777363715</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.1169278438985</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>354.7744061451527</v>
+        <v>15.76504954307433</v>
       </c>
       <c r="F11" t="n">
-        <v>379.7200818146024</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>383.7779076295847</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5761896917706</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.88922078048652</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.30857263115391</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>11.65105382355887</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.085004790304</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.57513675136</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.0819747289445</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396657</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.6760162548282</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4595090911033</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.2779987194601</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.2650840958222</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>138.8752925659751</v>
+        <v>89.45493997015909</v>
       </c>
       <c r="H13" t="n">
-        <v>117.6474907409089</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.02116115785275</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.7080092651074</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.4162641672991</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>224.9816793967189</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>249.4945053363892</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.5536914619281</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.4286894249857</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.5778777363715</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>354.7744061451527</v>
+        <v>47.88278262134543</v>
       </c>
       <c r="F14" t="n">
-        <v>379.7200818146024</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>383.7657617263444</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>108.0342581504353</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.42096584581686</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.03179786106674</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>223.8392080317929</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.5962945430259</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.085004790304</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.57513675136</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.0819747289445</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.6760162548282</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.0908571715188</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.4595090911033</v>
+        <v>68.85017973406144</v>
       </c>
       <c r="E16" t="n">
-        <v>119.2779987194601</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.2650840958222</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.8698443319192</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.5990509872117</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.19645648272902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>61.77618874293825</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S16" t="n">
-        <v>162.6130614043328</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.3929853490601</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.0558742785038</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>203.2724709280671</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.5536914619281</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.602741117779</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.141791225306</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D17" t="n">
-        <v>280.5519410749814</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>307.7992695265602</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>315.1011077527136</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>336.7906251077519</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
-        <v>220.4766638416189</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.05666124247428</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7868695939186</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U17" t="n">
-        <v>176.8640714132004</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.6211579244334</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.1098681717115</v>
+        <v>275.2743297342836</v>
       </c>
       <c r="X17" t="n">
-        <v>295.6000001327675</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.7008796362357</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.11572055292628</v>
+        <v>155.7512320878729</v>
       </c>
       <c r="D19" t="n">
-        <v>74.4843724725108</v>
+        <v>74.72018981249325</v>
       </c>
       <c r="E19" t="n">
-        <v>72.30286210086761</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F19" t="n">
-        <v>71.28994747722969</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89470771332667</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H19" t="n">
-        <v>70.62391436861923</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I19" t="n">
-        <v>22.22131986413654</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>14.80105212434577</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S19" t="n">
-        <v>115.6379247857404</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>211.5906203651514</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.0807376599113</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V19" t="n">
-        <v>178.0065427781265</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.3918977908895</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.5785548433356</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.4535528063932</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.602741117779</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.141791225306</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.5519410749814</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
-        <v>307.7992695265602</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.7449451960098</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>336.7906251077519</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H20" t="n">
-        <v>220.4766638416189</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T20" t="n">
-        <v>11.95692669594656</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.6211579244333</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.1098681717114</v>
+        <v>233.6711757635793</v>
       </c>
       <c r="X20" t="n">
-        <v>295.6000001327674</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.106838110352</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.7008796362357</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.11572055292622</v>
+        <v>93.35153789290872</v>
       </c>
       <c r="D22" t="n">
-        <v>74.48437247251074</v>
+        <v>137.1198840074575</v>
       </c>
       <c r="E22" t="n">
-        <v>72.30286210086756</v>
+        <v>72.53867944085006</v>
       </c>
       <c r="F22" t="n">
-        <v>71.28994747722963</v>
+        <v>71.52576481721213</v>
       </c>
       <c r="G22" t="n">
-        <v>91.89470771332661</v>
+        <v>92.13052505330911</v>
       </c>
       <c r="H22" t="n">
-        <v>136.7966860033037</v>
+        <v>70.85973170860167</v>
       </c>
       <c r="I22" t="n">
-        <v>22.22131986413648</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>14.80105212434572</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S22" t="n">
-        <v>115.6379247857403</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.4178487304676</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.0807376599113</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V22" t="n">
-        <v>178.0065427781264</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.3918977908894</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.5785548433356</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.4535528063932</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.602741117779</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.141791225306</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.5519410749814</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
-        <v>307.7992695265602</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.7449451960098</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>336.7906251077519</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
-        <v>220.4766638416189</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.05666124247422</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7868695939185</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
-        <v>176.8640714132003</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.6211579244333</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.1098681717114</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.6000001327674</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.106838110352</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.7008796362357</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.11572055292622</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D25" t="n">
-        <v>74.48437247251074</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E25" t="n">
-        <v>72.30286210086756</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F25" t="n">
-        <v>71.28994747722963</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G25" t="n">
-        <v>91.89470771332661</v>
+        <v>154.5302192482735</v>
       </c>
       <c r="H25" t="n">
-        <v>70.62391436861917</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I25" t="n">
-        <v>22.22131986413648</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>14.80105212434572</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S25" t="n">
-        <v>115.6379247857403</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.4178487304676</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.0807376599113</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>244.179314412811</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.3918977908894</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.5785548433356</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.4535528063932</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.53923808266073</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124573</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349167</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>89.27723295060891</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>124.3541982182265</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>99.36210032693397</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -4141,19 +4141,19 @@
         <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>90.60953276887678</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>92.08430510333692</v>
@@ -4189,19 +4189,19 @@
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>205.4124289181747</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.634844686384</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.102594339011</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.102594339011</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="E11" t="n">
-        <v>1122.744608333806</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.1889701372384</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.5345179861428</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H11" t="n">
-        <v>81.25553849950579</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>254.0744928369591</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3643121319019</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.921495383895</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2111.55476080156</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2612.501248106873</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3005.546484356409</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3252.534341412641</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.796077475972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3227.656105121271</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.887363885353</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.887363885353</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.887363885353</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.548975208279</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2544.513483540238</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2181.804418157466</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3156003142899</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8625710331629</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9281613719115</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>448.690706366456</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>302.156148393341</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520667</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>75.22119252365749</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>159.2853526912738</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5106591183467</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>761.811900185831</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.458086537445</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1679.307846295919</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.738397943176</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.00944543187</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.829753957941</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.829753957941</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2425.269938942937</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.600479990498</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.532201264789</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.380093033046</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.142736304845</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.291236099312</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.530937334358</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.9587247952467</v>
+        <v>418.3126375609369</v>
       </c>
       <c r="C13" t="n">
-        <v>687.9587247952467</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="D13" t="n">
-        <v>565.2723519759503</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7895249865967</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="F13" t="n">
-        <v>325.3298440817258</v>
+        <v>156.870641654567</v>
       </c>
       <c r="G13" t="n">
-        <v>185.0517707827608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8416200380168</v>
+        <v>138.2856940003744</v>
       </c>
       <c r="K13" t="n">
-        <v>368.0865513936189</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L13" t="n">
-        <v>710.728850352198</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
-        <v>1080.924805141148</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1448.392195020081</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1773.843815940419</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2032.683370908996</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2136.726418194347</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2074.078780661163</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1909.727256150954</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1715.367393355702</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1715.367393355702</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1488.113171742854</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.098519887915</v>
+        <v>967.167030653553</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.539235582938</v>
+        <v>766.3695470152593</v>
       </c>
       <c r="Y13" t="n">
-        <v>842.176923032447</v>
+        <v>572.7690351314529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.760069646681</v>
+        <v>1498.714766761813</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.760069646681</v>
+        <v>1156.944317081124</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.760069646681</v>
+        <v>1156.944317081124</v>
       </c>
       <c r="E14" t="n">
-        <v>961.4020836414761</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>577.8464454449077</v>
+        <v>724.7840324589722</v>
       </c>
       <c r="G14" t="n">
-        <v>190.2042618829437</v>
+        <v>336.9036495636923</v>
       </c>
       <c r="H14" t="n">
-        <v>81.07874859967569</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.745419729306</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.745419729306</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.645209596182</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2713.01258884565</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2387.674200168576</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2041.638708500536</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1678.929643117764</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>899.6018142905311</v>
+        <v>418.3126375609357</v>
       </c>
       <c r="C16" t="n">
-        <v>758.0958979556636</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="D16" t="n">
-        <v>635.4095251363674</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="E16" t="n">
-        <v>514.9266981470138</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="F16" t="n">
-        <v>395.4670172421428</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G16" t="n">
-        <v>255.1944472099013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>136.4075270207985</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>138.519153166957</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>369.3907404036713</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.8349431400054</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
-        <v>1083.876393027392</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1452.169174021095</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1778.383177229347</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2037.875081950844</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2142.369782391197</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2079.969591741764</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1915.71397416163</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1721.377625324195</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1459.705025042878</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.379296832709</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.379296832709</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X16" t="n">
-        <v>1053.820012527731</v>
+        <v>766.3695470152583</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.820012527731</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1836.069084643228</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C17" t="n">
-        <v>1541.986467243928</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D17" t="n">
-        <v>1258.600668178291</v>
+        <v>941.0313189532726</v>
       </c>
       <c r="E17" t="n">
-        <v>947.692315121159</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="F17" t="n">
-        <v>629.4083678961942</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G17" t="n">
-        <v>289.2158172823035</v>
+        <v>289.454016615619</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3290.195052677379</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3159.097204602714</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>2980.446627417663</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2724.263639615205</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2446.374883886204</v>
+        <v>2445.255963762463</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.789025166237</v>
+        <v>2146.43190570918</v>
       </c>
       <c r="Y17" t="n">
-        <v>2147.789025166237</v>
+        <v>1830.934273941165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>567.4543836540186</v>
+        <v>632.1517731235554</v>
       </c>
       <c r="C19" t="n">
-        <v>473.3981002672244</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D19" t="n">
-        <v>398.1613603960013</v>
+        <v>399.3523570625794</v>
       </c>
       <c r="E19" t="n">
-        <v>325.1281663547209</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F19" t="n">
-        <v>253.1181183979233</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.2951813137549</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H19" t="n">
-        <v>88.95789407272538</v>
+        <v>89.19609340604097</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.343990387133</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.538005755072</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1581.810106396334</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1367.58713906309</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.782550398316</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>973.2452799024676</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>820.1356285455629</v>
+        <v>885.3094166817309</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.2229489431455</v>
+        <v>739.1585377459979</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1853.891142666757</v>
+        <v>1560.999521934036</v>
       </c>
       <c r="C20" t="n">
-        <v>1559.808525267458</v>
+        <v>1560.999521934036</v>
       </c>
       <c r="D20" t="n">
-        <v>1276.42272620182</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>965.5143731446888</v>
+        <v>966.2289711446358</v>
       </c>
       <c r="F20" t="n">
-        <v>629.408367896194</v>
+        <v>629.8847665628253</v>
       </c>
       <c r="G20" t="n">
-        <v>289.2158172823035</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3313.528117875891</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>3313.528117875891</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>3057.345130073434</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2779.456374344432</v>
+        <v>2487.279351611659</v>
       </c>
       <c r="X20" t="n">
-        <v>2480.870515624465</v>
+        <v>2188.455293558376</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.611083189766</v>
+        <v>1872.957661790361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.2955671233965</v>
+        <v>632.1517731235554</v>
       </c>
       <c r="C22" t="n">
-        <v>540.2392837366024</v>
+        <v>537.8572904034455</v>
       </c>
       <c r="D22" t="n">
-        <v>465.0025438653794</v>
+        <v>399.3523570625794</v>
       </c>
       <c r="E22" t="n">
-        <v>391.969349824099</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F22" t="n">
-        <v>319.9593018673014</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>227.1363647831331</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H22" t="n">
-        <v>88.95789407272532</v>
+        <v>89.19609340604097</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.343990387134</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.538005755073</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1648.651289865711</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.428322532468</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1254.623733867693</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1040.086463371845</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>886.9768120149408</v>
+        <v>885.3094166817309</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.0641324125235</v>
+        <v>739.1585377459979</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.68872410468</v>
+        <v>1862.185977056949</v>
       </c>
       <c r="C23" t="n">
-        <v>1566.606106705381</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1283.220307639743</v>
+        <v>1284.241161925381</v>
       </c>
       <c r="E23" t="n">
-        <v>972.3119545826119</v>
+        <v>973.0946095349341</v>
       </c>
       <c r="F23" t="n">
-        <v>636.2059493341171</v>
+        <v>636.750404953124</v>
       </c>
       <c r="G23" t="n">
-        <v>296.0133987202265</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
-        <v>73.30969787010646</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.30969787010646</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.1888288291319</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0082025189784</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.042415767387</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1913.655810897541</v>
+        <v>1706.86681776303</v>
       </c>
       <c r="N23" t="n">
-        <v>2460.434627956323</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2963.40709883566</v>
+        <v>2756.618105701149</v>
       </c>
       <c r="P23" t="n">
-        <v>3358.181465192838</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3606.46782694852</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3665.484893505323</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3630.07412457353</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3498.976276498865</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3320.325699313814</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3064.142711511357</v>
+        <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2786.253955782355</v>
+        <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
-        <v>2487.668097062388</v>
+        <v>2489.641748681289</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.408664627689</v>
+        <v>2174.144116913274</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.3414359190316</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.8884066379046</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>624.9539969766533</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7165419711979</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1819839980828</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.818883830701</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.31698946856849</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.30969787010646</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>166.9869673607238</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.2511663410709</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>771.9493266537363</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.225651876052</v>
+        <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.748695430507</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.709974848562</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.209566324665</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.851123971264</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.70677056378</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.26888405726</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.625883735115</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.55803686953</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.405928637788</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.168571909586</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.317071704053</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.5567729391</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>574.2519650919412</v>
+        <v>639.0174115138545</v>
       </c>
       <c r="C25" t="n">
-        <v>480.1956817051471</v>
+        <v>544.7229287937447</v>
       </c>
       <c r="D25" t="n">
-        <v>404.9589418339241</v>
+        <v>469.247989589206</v>
       </c>
       <c r="E25" t="n">
-        <v>331.9257477926437</v>
+        <v>395.97659621461</v>
       </c>
       <c r="F25" t="n">
-        <v>259.9156998358461</v>
+        <v>323.7283489244967</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0927627516778</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>95.75547551064837</v>
+        <v>96.06173179633996</v>
       </c>
       <c r="I25" t="n">
-        <v>73.30969787010646</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.432330317042</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4195132659184</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>638.9793117144145</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.1363573139636</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
-        <v>1324.544734019828</v>
+        <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.874332940242</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.481833373901</v>
+        <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.092129526416</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1919.141571825057</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1802.335587192996</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1655.448871303634</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1441.225903970391</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1194.580131836238</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>980.0428613403901</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>826.9332099834855</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.0205303810682</v>
+        <v>746.0241761362972</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467807</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6233,43 +6233,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.29557928546</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521975</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572847</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6367,19 +6367,19 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890157</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037424</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,7 +6582,7 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965683</v>
@@ -6604,13 +6604,13 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,34 +6619,34 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960301</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,10 +6686,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6704,10 +6704,10 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285458</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
@@ -6859,31 +6859,31 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6950,7 +6950,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6962,25 +6962,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>598.2565075725905</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C37" t="n">
-        <v>527.991759218527</v>
+        <v>529.3375166107159</v>
       </c>
       <c r="D37" t="n">
-        <v>377.8751198061913</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6334607976416</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4149478735746</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1883.315519722169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1790.301070122839</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1667.205889266208</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1476.774456965695</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.761403333652</v>
+        <v>1322.107160725841</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.015667870534</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X37" t="n">
-        <v>902.026116972517</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.2335378289869</v>
+        <v>781.2507297950192</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912276</v>
+        <v>740.9069705127572</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>670.6422221586936</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>520.5255827463578</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>471.283923737808</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>324.3939762398977</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>156.6911396146167</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214673</v>
+        <v>823.8840007691535</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.4050786964422</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1403303423787</v>
+        <v>529.3375166107156</v>
       </c>
       <c r="D43" t="n">
-        <v>430.6951255038863</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E43" t="n">
-        <v>381.4534664953366</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F43" t="n">
-        <v>333.2349535712697</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G43" t="n">
-        <v>264.203551519832</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1233.58015894186</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.567105309816</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W43" t="n">
-        <v>886.8213698466992</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X43" t="n">
-        <v>757.5032535225253</v>
+        <v>847.3337107649977</v>
       </c>
       <c r="Y43" t="n">
-        <v>635.3821089528385</v>
+        <v>725.212566195311</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7682,7 +7682,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049856</v>
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866014</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3136567325379</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>717.8684518940456</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>569.9553583116525</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>423.0654108137421</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>255.3625741884611</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411926</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429977</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5688775991079</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>183.4051326952087</v>
+        <v>184.4039433729004</v>
       </c>
       <c r="L8" t="n">
-        <v>190.2557779724017</v>
+        <v>191.4948909389599</v>
       </c>
       <c r="M8" t="n">
-        <v>179.7068806065019</v>
+        <v>181.0856325333062</v>
       </c>
       <c r="N8" t="n">
-        <v>177.9543133086028</v>
+        <v>179.3553748830236</v>
       </c>
       <c r="O8" t="n">
-        <v>181.5071727231018</v>
+        <v>182.8301554383985</v>
       </c>
       <c r="P8" t="n">
-        <v>189.7616684194392</v>
+        <v>190.8908035586581</v>
       </c>
       <c r="Q8" t="n">
-        <v>191.1624501610454</v>
+        <v>192.0103836266121</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.2592771130225</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>112.9247175818276</v>
+        <v>113.6031223372531</v>
       </c>
       <c r="L9" t="n">
-        <v>105.0507729532107</v>
+        <v>105.9629718672271</v>
       </c>
       <c r="M9" t="n">
-        <v>103.036905018345</v>
+        <v>104.1013981253589</v>
       </c>
       <c r="N9" t="n">
-        <v>91.2097985147177</v>
+        <v>92.30246558677615</v>
       </c>
       <c r="O9" t="n">
-        <v>105.8833839348795</v>
+        <v>106.8829608359732</v>
       </c>
       <c r="P9" t="n">
-        <v>104.5091001924482</v>
+        <v>105.3113487798321</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.2849965265182</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>115.6518759777138</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>118.6474926651253</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8894256252412</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.1716186084284</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.0820963055931</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.546395060290962</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>336.4459499578069</v>
+        <v>127.4994347185279</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.835176366544</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089242</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.01434414347917</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.5270776935739</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>339.245173942061</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1641210803864</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>223.8401797040521</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.5962945430259</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.0908571715188</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>49.65072170174268</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.36029973961077</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.0561714549069</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>9.872529073092718</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.1169278438985</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.5270776935739</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>307.12744086379</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>159.4175423097761</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.7620062125111</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>52.84514669702452</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>21.70920846865184</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.367034409482</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.4286894249857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>17.64383744329624</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.07135577741030374</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.106838110352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.05666124247421</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>117.829942897972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>176.8640714132004</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>41.67450974811462</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1347473.787403396</v>
+        <v>1348050.851509216</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1124778.509619318</v>
+        <v>1125967.268610358</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1126602.424523695</v>
+        <v>1125967.268610358</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1225479.031767846</v>
+        <v>1225078.26963124</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1225479.031767846</v>
+        <v>1225078.26963124</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1280237.069962456</v>
+        <v>1280384.541816371</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1265507.466273303</v>
+        <v>1265507.466273304</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1265507.466273303</v>
+        <v>1265507.466273304</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
         <v>184337.1762113336</v>
       </c>
       <c r="D2" t="n">
-        <v>184342.3413366202</v>
+        <v>184342.2007063378</v>
       </c>
       <c r="E2" t="n">
-        <v>163934.3903654856</v>
+        <v>164146.5002036193</v>
       </c>
       <c r="F2" t="n">
-        <v>164240.2117318167</v>
+        <v>164146.5002036192</v>
       </c>
       <c r="G2" t="n">
-        <v>178828.5636202982</v>
+        <v>178769.4347804709</v>
       </c>
       <c r="H2" t="n">
-        <v>178828.5636202982</v>
+        <v>178769.4347804708</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194639</v>
@@ -26338,16 +26338,16 @@
         <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194638</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="N2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194639</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61437.30009708343</v>
+        <v>59764.55367552346</v>
       </c>
       <c r="E3" t="n">
-        <v>1084325.638460093</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>3449.010472953375</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487382</v>
+        <v>37580.109294874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22595.24566942414</v>
+        <v>22821.46782983383</v>
       </c>
       <c r="J3" t="n">
-        <v>25632.01668739016</v>
+        <v>25409.43302179694</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487412</v>
       </c>
       <c r="M3" t="n">
-        <v>201245.4381234818</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>906.8265503280246</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>438909.9585141622</v>
+        <v>439568.9169913873</v>
       </c>
       <c r="E4" t="n">
-        <v>41728.64579728548</v>
+        <v>41244.04987367439</v>
       </c>
       <c r="F4" t="n">
-        <v>41482.35407818123</v>
+        <v>41244.04987367433</v>
       </c>
       <c r="G4" t="n">
-        <v>78422.20487951626</v>
+        <v>78272.21023511668</v>
       </c>
       <c r="H4" t="n">
-        <v>78422.2048795163</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="I4" t="n">
-        <v>93191.98021509405</v>
+        <v>93189.85962057463</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226079</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226068</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226074</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="M4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="N4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="O4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93403.78684820631</v>
       </c>
       <c r="P4" t="n">
         <v>93403.78684820633</v>
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35191.48515614693</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76298.34298516075</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76589.31529278144</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
-        <v>80538.46805316988</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80538.4680531699</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85704.62994599139</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,10 +26503,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-312441.1548907761</v>
+        <v>-312445.5684686442</v>
       </c>
       <c r="C6" t="n">
-        <v>-312441.1548907761</v>
+        <v>-312445.5684686443</v>
       </c>
       <c r="D6" t="n">
-        <v>-351196.4024307724</v>
+        <v>-350144.5331425851</v>
       </c>
       <c r="E6" t="n">
-        <v>-1038418.236877054</v>
+        <v>-1043134.766620911</v>
       </c>
       <c r="F6" t="n">
-        <v>42719.53188790065</v>
+        <v>46104.20554272026</v>
       </c>
       <c r="G6" t="n">
-        <v>-17712.21860726181</v>
+        <v>-17667.80524627903</v>
       </c>
       <c r="H6" t="n">
-        <v>19867.89068761203</v>
+        <v>19912.30404859493</v>
       </c>
       <c r="I6" t="n">
-        <v>-16757.45761104571</v>
+        <v>-17013.45753278668</v>
       </c>
       <c r="J6" t="n">
-        <v>-23339.31113499322</v>
+        <v>-23116.72746939989</v>
       </c>
       <c r="K6" t="n">
-        <v>2292.705552397136</v>
+        <v>2292.705552397005</v>
       </c>
       <c r="L6" t="n">
-        <v>-35287.40374247696</v>
+        <v>-35287.40374247712</v>
       </c>
       <c r="M6" t="n">
-        <v>-192433.4240584742</v>
+        <v>-193356.0859277165</v>
       </c>
       <c r="N6" t="n">
-        <v>7905.187514679594</v>
+        <v>8812.014065007723</v>
       </c>
       <c r="O6" t="n">
-        <v>8812.014065007752</v>
+        <v>8812.01406500765</v>
       </c>
       <c r="P6" t="n">
         <v>8812.01406500765</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H2" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I2" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810498</v>
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.73785119940055</v>
+        <v>69.7846528379072</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.699019368993</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>916.3712233763307</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951232</v>
+        <v>50.70958360951233</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.73785119940055</v>
+        <v>69.7846528379072</v>
       </c>
       <c r="E3" t="n">
-        <v>1015.017555962886</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431011827</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.699019368993</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>3.702436033299705</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.96976797403795</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.96523783228417</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>644.7640135626714</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299819</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>827.699019368993</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299705</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.5212934982964</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.3576041096425</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>131.7533278088709</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.4483056296369</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8334075797077</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
-        <v>251.322581438104</v>
+        <v>251.3232096024012</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.1892131059138</v>
+        <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7451918936561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.08397122957268</v>
+        <v>84.228618466721</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.57744715661752</v>
+        <v>90.83829126987507</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8170409167674</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
-        <v>199.5427750603664</v>
+        <v>199.5597089216326</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9312304982579</v>
+        <v>225.9315068942525</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8616160202303</v>
+        <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.0770148275541</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.5601665376252</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.21319210392298</v>
+        <v>84.46220888519073</v>
       </c>
       <c r="K10" t="n">
-        <v>7.239823984434675</v>
+        <v>7.649035050990168</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.32962772058491</v>
+        <v>75.62456067317039</v>
       </c>
       <c r="R10" t="n">
-        <v>171.4767452782804</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.762147860755</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.3928551649419</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3119731744057</v>
+        <v>286.3121652922773</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.15596392710906</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.15596392710906</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y17" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C19" t="n">
-        <v>74.13110054570156</v>
+        <v>11.49558901075488</v>
       </c>
       <c r="D19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T19" t="n">
-        <v>7.958328911017816</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.13110054570156</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="E20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y20" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="C22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="D22" t="n">
-        <v>74.13110054570161</v>
+        <v>11.49558901075486</v>
       </c>
       <c r="E22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="F22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="G22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="H22" t="n">
-        <v>7.958328911017077</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="I22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="S22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="T22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="U22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="V22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="W22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="X22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.13110054570161</v>
+        <v>73.89528320571911</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y23" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G25" t="n">
-        <v>74.13110054570161</v>
+        <v>11.49558901075471</v>
       </c>
       <c r="H25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V25" t="n">
-        <v>7.958328911016963</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y25" t="n">
-        <v>74.13110054570161</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.3929145873866</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371188</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>55.4777819637108</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>45.39291458738681</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30861,19 +30861,19 @@
         <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>54.14548214544401</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810498</v>
@@ -30909,19 +30909,19 @@
         <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>46.72521440565328</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2883933716558814</v>
+        <v>0.2805413179413353</v>
       </c>
       <c r="H8" t="n">
-        <v>2.953508617470796</v>
+        <v>2.873093772366701</v>
       </c>
       <c r="I8" t="n">
-        <v>11.11828546076338</v>
+        <v>10.81556915993334</v>
       </c>
       <c r="J8" t="n">
-        <v>24.47702692757839</v>
+        <v>23.81059368362343</v>
       </c>
       <c r="K8" t="n">
-        <v>36.68471834977186</v>
+        <v>35.68590767208016</v>
       </c>
       <c r="L8" t="n">
-        <v>45.51063699758554</v>
+        <v>44.2715240310273</v>
       </c>
       <c r="M8" t="n">
-        <v>50.63935262077082</v>
+        <v>49.26060069396652</v>
       </c>
       <c r="N8" t="n">
-        <v>51.4587502879881</v>
+        <v>50.05768871356734</v>
       </c>
       <c r="O8" t="n">
-        <v>48.59103869858492</v>
+        <v>47.26805598328819</v>
       </c>
       <c r="P8" t="n">
-        <v>41.47132733583035</v>
+        <v>40.34219219661147</v>
       </c>
       <c r="Q8" t="n">
-        <v>31.14323971340409</v>
+        <v>30.29530624783739</v>
       </c>
       <c r="R8" t="n">
-        <v>18.11579013227878</v>
+        <v>17.62255356313242</v>
       </c>
       <c r="S8" t="n">
-        <v>6.571763956608404</v>
+        <v>6.392835282588184</v>
       </c>
       <c r="T8" t="n">
-        <v>1.262441984423621</v>
+        <v>1.228069619288196</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02307146973247051</v>
+        <v>0.02244330543530682</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1543040572968238</v>
+        <v>0.1501028381796495</v>
       </c>
       <c r="H9" t="n">
-        <v>1.490252342840378</v>
+        <v>1.449677410840299</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3126616218424</v>
+        <v>5.168014384694072</v>
       </c>
       <c r="J9" t="n">
-        <v>14.57834955364422</v>
+        <v>14.18142647906943</v>
       </c>
       <c r="K9" t="n">
-        <v>24.91672139253142</v>
+        <v>24.23831663710594</v>
       </c>
       <c r="L9" t="n">
-        <v>33.50360682666344</v>
+        <v>32.59140791264713</v>
       </c>
       <c r="M9" t="n">
-        <v>39.09712890367329</v>
+        <v>38.03263579665942</v>
       </c>
       <c r="N9" t="n">
-        <v>40.1319135686156</v>
+        <v>39.03924649655716</v>
       </c>
       <c r="O9" t="n">
-        <v>36.71286050956492</v>
+        <v>35.71328360847124</v>
       </c>
       <c r="P9" t="n">
-        <v>29.46530722188209</v>
+        <v>28.66305863449815</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.69677755950334</v>
+        <v>19.16049562447596</v>
       </c>
       <c r="R9" t="n">
-        <v>9.580386996025609</v>
+        <v>9.319542882768063</v>
       </c>
       <c r="S9" t="n">
-        <v>2.866130187070388</v>
+        <v>2.788094384608838</v>
       </c>
       <c r="T9" t="n">
-        <v>0.62195363445518</v>
+        <v>0.6050197731890254</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01015158271689631</v>
+        <v>0.009875186722345363</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1293633382284272</v>
+        <v>0.1258411772486851</v>
       </c>
       <c r="H10" t="n">
-        <v>1.150157679885472</v>
+        <v>1.118842466811037</v>
       </c>
       <c r="I10" t="n">
-        <v>3.890308389633067</v>
+        <v>3.78438740307864</v>
       </c>
       <c r="J10" t="n">
-        <v>9.145988012749804</v>
+        <v>8.896971231482036</v>
       </c>
       <c r="K10" t="n">
-        <v>15.02966784144818</v>
+        <v>14.62045677489268</v>
       </c>
       <c r="L10" t="n">
-        <v>19.23280030352453</v>
+        <v>18.70915102477269</v>
       </c>
       <c r="M10" t="n">
-        <v>20.27829128247973</v>
+        <v>19.72617653908252</v>
       </c>
       <c r="N10" t="n">
-        <v>19.79611883999197</v>
+        <v>19.25713215115562</v>
       </c>
       <c r="O10" t="n">
-        <v>18.28491984341443</v>
+        <v>17.78707839875052</v>
       </c>
       <c r="P10" t="n">
-        <v>15.6459077435545</v>
+        <v>15.21991838287733</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.83241553110948</v>
+        <v>10.53748257852399</v>
       </c>
       <c r="R10" t="n">
-        <v>5.816646098889098</v>
+        <v>5.658276933381785</v>
       </c>
       <c r="S10" t="n">
-        <v>2.254450176217226</v>
+        <v>2.193068516233903</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5527342633396434</v>
+        <v>0.5376850300625635</v>
       </c>
       <c r="U10" t="n">
-        <v>0.007056182085186947</v>
+        <v>0.00686406421356465</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36886595844135</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688749</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402619</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610844</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>689.439814736734</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251653</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295869</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553357</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063148</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798236</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237128</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701842</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178671</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732925</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034462</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312872</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295525</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>446.369404877657</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906992</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220767</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475578</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873353</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135756</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161038</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667467</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978926</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>506.0065528336489</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510452</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>58.8502384478096</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581275</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435081</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934183</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479539</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851081</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633268</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.34919039242158</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.5706377329315</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.103332281393</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>373.9353078676268</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.1791816958915</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>328.7390110306444</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.4540959278559</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.09398715692</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.73438054017532</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2036234714287</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.9133360973073</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.7893433205929</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>372.0129100946492</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.5090941497489</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>262.1130350722195</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.5502024650027</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>875.3670657880336</v>
+        <v>666.4205505487547</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36601,13 +36601,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165747</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218357</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629108</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
